--- a/legislator/property/output/normal/盧秀燕_2011-11-21_財產申報表_tmp9eb41.xlsx
+++ b/legislator/property/output/normal/盧秀燕_2011-11-21_財產申報表_tmp9eb41.xlsx
@@ -17,18 +17,105 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="64">
-  <si>
-    <t>土地坐落</t>
-  </si>
-  <si>
-    <t>面積（平方公尺）</t>
-  </si>
-  <si>
-    <t>權利範圍（持分）</t>
-  </si>
-  <si>
-    <t>所有權人</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="77">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>share_portion</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>register_reason</t>
+  </si>
+  <si>
+    <t>acquire_value</t>
+  </si>
+  <si>
+    <t>property_category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>南投縣南投市牛運堀段02670002地號</t>
+  </si>
+  <si>
+    <t>南投縣南投市牛運堀段02670008地號</t>
+  </si>
+  <si>
+    <t>南投縣南投市牛運堀段02670041地號</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>全部</t>
+  </si>
+  <si>
+    <t>廖述嘉</t>
+  </si>
+  <si>
+    <t>79年05月04日</t>
+  </si>
+  <si>
+    <t>80年06月25日</t>
+  </si>
+  <si>
+    <t>共有物分割</t>
+  </si>
+  <si>
+    <t>共有物分‘割</t>
+  </si>
+  <si>
+    <t>(超過五年）</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2011-11-21</t>
+  </si>
+  <si>
+    <t>盧秀燕</t>
+  </si>
+  <si>
+    <t>tmp9eb41</t>
+  </si>
+  <si>
+    <t>廠牌型號</t>
+  </si>
+  <si>
+    <t>汽缸容量</t>
+  </si>
+  <si>
+    <t>所有人</t>
   </si>
   <si>
     <t>登記（取得)時間</t>
@@ -40,67 +127,19 @@
     <t>取得價額</t>
   </si>
   <si>
-    <t>南投縣南投市牛運堀段 0267-0002 地號</t>
-  </si>
-  <si>
-    <t>南投縣南投市牛運堀段 0267-0008 地號</t>
-  </si>
-  <si>
-    <t>南投縣南投市牛運堀段 0267-0041 地號</t>
-  </si>
-  <si>
-    <t>3 ¥</t>
-  </si>
-  <si>
-    <t>全部</t>
-  </si>
-  <si>
-    <t>廖述嘉</t>
-  </si>
-  <si>
-    <t>79年05月 04日</t>
-  </si>
-  <si>
-    <t>80年06月 25日</t>
-  </si>
-  <si>
-    <t>共有物分 割</t>
-  </si>
-  <si>
-    <t>共有物分‘ 割</t>
-  </si>
-  <si>
-    <t>(超過五年）</t>
-  </si>
-  <si>
-    <t>(超過五年）'</t>
-  </si>
-  <si>
-    <t>廠牌型號</t>
-  </si>
-  <si>
-    <t>汽缸容量</t>
-  </si>
-  <si>
-    <t>所有人</t>
-  </si>
-  <si>
     <t>HYUNDAI</t>
   </si>
   <si>
     <t>國瑞</t>
   </si>
   <si>
-    <t>盧秀燕</t>
-  </si>
-  <si>
-    <t>99年02月 06日</t>
-  </si>
-  <si>
-    <t>99年08月 16日</t>
-  </si>
-  <si>
-    <t>(購二手 車）</t>
+    <t>99年02月06日</t>
+  </si>
+  <si>
+    <t>99年08月16日</t>
+  </si>
+  <si>
+    <t>(購二手車）</t>
   </si>
   <si>
     <t>存放機構(應敘明分支機構）</t>
@@ -118,19 +157,19 @@
     <t>臺灣銀行群賢分行</t>
   </si>
   <si>
-    <t>合作金庫商業銀行中權分 行</t>
-  </si>
-  <si>
-    <t>中國信託商業銀行城中分 行</t>
-  </si>
-  <si>
-    <t>中華郵政股份有限公司中 正路郵局</t>
-  </si>
-  <si>
-    <t>中華郵政股份有限公司台 中永安郵局</t>
-  </si>
-  <si>
-    <t>國泰世華商業銀行中港分 行</t>
+    <t>合作金庫商業銀行中權分行</t>
+  </si>
+  <si>
+    <t>中國信託商業銀行城中分行</t>
+  </si>
+  <si>
+    <t>中華郵政股份有限公司中正路郵局</t>
+  </si>
+  <si>
+    <t>中華郵政股份有限公司台中永安郵局</t>
+  </si>
+  <si>
+    <t>國泰世華商業銀行中港分行</t>
   </si>
   <si>
     <t>活期儲蓄存款</t>
@@ -187,28 +226,28 @@
     <t>得意人生終身保險</t>
   </si>
   <si>
-    <t>保險期間： 95/1/8-117/1/8(22 年)、年繳 '保費應繳$71’400</t>
-  </si>
-  <si>
-    <t>保險期間： 92/6-102/5(10 年）、年缴、保 費應繳$103,431</t>
-  </si>
-  <si>
-    <t>保險期間： 92/6-102/5(10 年）、年繳、保 費應繳$102,559</t>
-  </si>
-  <si>
-    <t>保險期間： 99/8/24-105/8/24(6 年)、年 繳、保費應繳$159，588</t>
-  </si>
-  <si>
-    <t>保險期間： 91/12/30-101/12/30(10 年) 、年繳、保費應繳$70,309</t>
-  </si>
-  <si>
-    <t>保險期間： 91/12/30-101/12/30(10年） 、年繳、保費應繳$73’185</t>
-  </si>
-  <si>
-    <t>保險期間： 91/12/30-101/12/30(10 年) 、年繳、保費應繳$73，234</t>
-  </si>
-  <si>
-    <t>保險期間： 91/12/30-101/12/30(10年) 、年缴、保費應繳$70,357</t>
+    <t>保險期間：951811718(22年)年繳保費應繳$71400</t>
+  </si>
+  <si>
+    <t>保險期間：9261025(10年）年缴保費應繳$103431</t>
+  </si>
+  <si>
+    <t>保險期間：9261025(10年）年繳保費應繳$102559</t>
+  </si>
+  <si>
+    <t>保險期間：99824105824(6年)年繳保費應繳$159588</t>
+  </si>
+  <si>
+    <t>保險期間：9112301011230(10年)年繳保費應繳$70309</t>
+  </si>
+  <si>
+    <t>保險期間：9112301011230(10年）年繳保費應繳$73185</t>
+  </si>
+  <si>
+    <t>保險期間：9112301011230(10年)年繳保費應繳$73234</t>
+  </si>
+  <si>
+    <t>保險期間：9112301011230(10年)年缴保費應繳$70357</t>
   </si>
 </sst>
 </file>
@@ -567,13 +606,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -595,82 +634,166 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>325</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" s="2">
+        <v>869</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O2" s="2">
         <v>15</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>16</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2">
         <v>27</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M3" s="2">
+        <v>869</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O3" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>17</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="H4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M4" s="2">
+        <v>869</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O4" s="2">
         <v>17</v>
       </c>
     </row>
@@ -689,22 +812,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -712,19 +835,19 @@
         <v>32</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="C2" s="2">
         <v>2497</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="G2" s="2">
         <v>100000</v>
@@ -735,19 +858,19 @@
         <v>33</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="C3" s="2">
         <v>1998</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="G3" s="2">
         <v>50000</v>
@@ -768,19 +891,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -788,16 +911,16 @@
         <v>47</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F2" s="2">
         <v>4752062</v>
@@ -808,16 +931,16 @@
         <v>48</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F3" s="2">
         <v>2000000</v>
@@ -828,16 +951,16 @@
         <v>49</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F4" s="2">
         <v>188252</v>
@@ -848,16 +971,16 @@
         <v>50</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F5" s="2">
         <v>37158</v>
@@ -868,16 +991,16 @@
         <v>51</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="F6" s="2">
         <v>155001</v>
@@ -888,16 +1011,16 @@
         <v>52</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="F7" s="2">
         <v>3531</v>
@@ -908,16 +1031,16 @@
         <v>53</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="F8" s="2">
         <v>805752</v>
@@ -928,16 +1051,16 @@
         <v>54</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="F9" s="2">
         <v>840000</v>
@@ -948,16 +1071,16 @@
         <v>55</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="F10" s="2">
         <v>1238149</v>
@@ -968,16 +1091,16 @@
         <v>56</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="F11" s="2">
         <v>45421</v>
@@ -998,16 +1121,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1015,16 +1138,16 @@
         <v>87</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1032,16 +1155,16 @@
         <v>88</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1049,16 +1172,16 @@
         <v>89</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1066,16 +1189,16 @@
         <v>90</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1083,16 +1206,16 @@
         <v>91</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1100,16 +1223,16 @@
         <v>92</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1117,16 +1240,16 @@
         <v>93</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1134,16 +1257,16 @@
         <v>94</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/盧秀燕_2011-11-21_財產申報表_tmp9eb41.xlsx
+++ b/legislator/property/output/normal/盧秀燕_2011-11-21_財產申報表_tmp9eb41.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="62">
   <si>
     <t>name</t>
   </si>
@@ -61,7 +61,10 @@
     <t>index</t>
   </si>
   <si>
-    <t>南投縣南投市牛運堀段02670002地號</t>
+    <t>portion</t>
+  </si>
+  <si>
+    <t>total</t>
   </si>
   <si>
     <t>南投縣南投市牛運堀段02670008地號</t>
@@ -70,18 +73,12 @@
     <t>南投縣南投市牛運堀段02670041地號</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>全部</t>
   </si>
   <si>
     <t>廖述嘉</t>
   </si>
   <si>
-    <t>79年05月04日</t>
-  </si>
-  <si>
     <t>80年06月25日</t>
   </si>
   <si>
@@ -109,54 +106,30 @@
     <t>tmp9eb41</t>
   </si>
   <si>
-    <t>廠牌型號</t>
-  </si>
-  <si>
-    <t>汽缸容量</t>
-  </si>
-  <si>
-    <t>所有人</t>
-  </si>
-  <si>
-    <t>登記（取得)時間</t>
-  </si>
-  <si>
-    <t>登記（取得）原因</t>
-  </si>
-  <si>
-    <t>取得價額</t>
-  </si>
-  <si>
     <t>HYUNDAI</t>
   </si>
   <si>
+    <t>99年02月06日</t>
+  </si>
+  <si>
+    <t>(購二手車）</t>
+  </si>
+  <si>
     <t>國瑞</t>
   </si>
   <si>
-    <t>99年02月06日</t>
-  </si>
-  <si>
     <t>99年08月16日</t>
   </si>
   <si>
-    <t>(購二手車）</t>
-  </si>
-  <si>
-    <t>存放機構(應敘明分支機構）</t>
-  </si>
-  <si>
-    <t>種類</t>
-  </si>
-  <si>
-    <t>幣別</t>
-  </si>
-  <si>
-    <t>新臺幣總額或折合新臺幣總額</t>
-  </si>
-  <si>
     <t>臺灣銀行群賢分行</t>
   </si>
   <si>
+    <t>活期儲蓄存款</t>
+  </si>
+  <si>
+    <t>新臺幣</t>
+  </si>
+  <si>
     <t>合作金庫商業銀行中權分行</t>
   </si>
   <si>
@@ -172,9 +145,6 @@
     <t>國泰世華商業銀行中港分行</t>
   </si>
   <si>
-    <t>活期儲蓄存款</t>
-  </si>
-  <si>
     <t>定期存款</t>
   </si>
   <si>
@@ -184,39 +154,27 @@
     <t>活期存款</t>
   </si>
   <si>
-    <t>新臺幣</t>
-  </si>
-  <si>
     <t>廖〇青</t>
   </si>
   <si>
     <t>廖〇桐</t>
   </si>
   <si>
-    <t>保險公司</t>
-  </si>
-  <si>
-    <t>保險名稱</t>
-  </si>
-  <si>
-    <t>要保人</t>
-  </si>
-  <si>
-    <t>備註</t>
-  </si>
-  <si>
     <t>南山人壽</t>
   </si>
   <si>
+    <t>子女教育保險</t>
+  </si>
+  <si>
+    <t>保險期間：951811718(22年)年繳保費應繳$71400</t>
+  </si>
+  <si>
     <t>中華郵政</t>
   </si>
   <si>
     <t>中國人壽</t>
   </si>
   <si>
-    <t>子女教育保險</t>
-  </si>
-  <si>
     <t>十年快樂兒同還本終身壽險</t>
   </si>
   <si>
@@ -224,9 +182,6 @@
   </si>
   <si>
     <t>得意人生終身保險</t>
-  </si>
-  <si>
-    <t>保險期間：951811718(22年)年繳保費應繳$71400</t>
   </si>
   <si>
     <t>保險期間：9261025(10年）年缴保費應繳$103431</t>
@@ -606,13 +561,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -655,16 +610,22 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>325</v>
+        <v>27</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>18</v>
@@ -676,42 +637,48 @@
         <v>20</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="L2" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M2" s="2">
         <v>869</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O2" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>16</v>
+      </c>
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C3" s="2">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>18</v>
@@ -720,81 +687,40 @@
         <v>19</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>22</v>
       </c>
       <c r="H3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="K3" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="L3" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M3" s="2">
         <v>869</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O3" s="2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="A4" s="1">
         <v>17</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="M4" s="2">
-        <v>869</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="O4" s="2">
-        <v>17</v>
+      <c r="P3" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -804,7 +730,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -812,67 +738,44 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2497</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>35</v>
+      <c r="G1" s="1">
+        <v>100000</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
+        <v>33</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="C2" s="2">
-        <v>2497</v>
+        <v>1998</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G2" s="2">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>33</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" s="2">
-        <v>1998</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G3" s="2">
         <v>50000</v>
       </c>
     </row>
@@ -883,7 +786,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -891,218 +794,198 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>44</v>
+        <v>27</v>
+      </c>
+      <c r="F1" s="1">
+        <v>4752062</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F2" s="2">
-        <v>4752062</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F3" s="2">
-        <v>2000000</v>
+        <v>188252</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F4" s="2">
-        <v>188252</v>
+        <v>37158</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="F5" s="2">
-        <v>37158</v>
+        <v>155001</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="F6" s="2">
-        <v>155001</v>
+        <v>3531</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="F7" s="2">
-        <v>3531</v>
+        <v>805752</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="F8" s="2">
-        <v>805752</v>
+        <v>840000</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="F9" s="2">
-        <v>840000</v>
+        <v>1238149</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="F10" s="2">
-        <v>1238149</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="1">
-        <v>56</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F11" s="2">
         <v>45421</v>
       </c>
     </row>
@@ -1113,7 +996,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1121,152 +1004,135 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1">
-        <v>94</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/盧秀燕_2011-11-21_財產申報表_tmp9eb41.xlsx
+++ b/legislator/property/output/normal/盧秀燕_2011-11-21_財產申報表_tmp9eb41.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="64">
   <si>
     <t>name</t>
   </si>
@@ -67,6 +67,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>南投縣南投市牛運堀段02670002地號</t>
+  </si>
+  <si>
     <t>南投縣南投市牛運堀段02670008地號</t>
   </si>
   <si>
@@ -77,6 +80,9 @@
   </si>
   <si>
     <t>廖述嘉</t>
+  </si>
+  <si>
+    <t>79年05月04日</t>
   </si>
   <si>
     <t>80年06月25日</t>
@@ -561,7 +567,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -619,107 +625,160 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="2">
+        <v>325</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="K2" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M2" s="2">
         <v>869</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="O2" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P2" s="2">
         <v>1</v>
       </c>
       <c r="Q2" s="2">
-        <v>27</v>
+        <v>325</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="2">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M3" s="2">
         <v>869</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="O3" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P3" s="2">
         <v>1</v>
       </c>
       <c r="Q3" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="1">
+        <v>17</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="2">
+        <v>3</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M4" s="2">
+        <v>869</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O4" s="2">
+        <v>17</v>
+      </c>
+      <c r="P4" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="2">
         <v>3</v>
       </c>
     </row>
@@ -730,7 +789,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -738,19 +797,19 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C1" s="1">
         <v>2497</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G1" s="1">
         <v>100000</v>
@@ -758,24 +817,47 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
+        <v>32</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="2">
+        <v>2497</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="2">
+      <c r="G2" s="2">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>33</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="2">
         <v>1998</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="D3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G2" s="2">
+      <c r="G3" s="2">
         <v>50000</v>
       </c>
     </row>
@@ -786,7 +868,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -794,16 +876,16 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F1" s="1">
         <v>4752062</v>
@@ -811,181 +893,201 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F2" s="2">
-        <v>2000000</v>
+        <v>4752062</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F3" s="2">
-        <v>188252</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F4" s="2">
-        <v>37158</v>
+        <v>188252</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="F5" s="2">
-        <v>155001</v>
+        <v>37158</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="E6" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F6" s="2">
-        <v>3531</v>
+        <v>155001</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F7" s="2">
-        <v>805752</v>
+        <v>3531</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F8" s="2">
-        <v>840000</v>
+        <v>805752</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>44</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F9" s="2">
-        <v>1238149</v>
+        <v>840000</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1">
+        <v>55</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="2">
+        <v>1238149</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1">
         <v>56</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F10" s="2">
+      <c r="B11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="2">
         <v>45421</v>
       </c>
     </row>
@@ -996,7 +1098,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1004,135 +1106,152 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1">
+        <v>93</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1">
         <v>94</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>61</v>
+      <c r="B9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/盧秀燕_2011-11-21_財產申報表_tmp9eb41.xlsx
+++ b/legislator/property/output/normal/盧秀燕_2011-11-21_財產申報表_tmp9eb41.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="65">
   <si>
     <t>name</t>
   </si>
@@ -112,19 +112,22 @@
     <t>tmp9eb41</t>
   </si>
   <si>
+    <t>capacity</t>
+  </si>
+  <si>
     <t>HYUNDAI</t>
   </si>
   <si>
+    <t>國瑞</t>
+  </si>
+  <si>
     <t>99年02月06日</t>
   </si>
   <si>
+    <t>99年08月16日</t>
+  </si>
+  <si>
     <t>(購二手車）</t>
-  </si>
-  <si>
-    <t>國瑞</t>
-  </si>
-  <si>
-    <t>99年08月16日</t>
   </si>
   <si>
     <t>臺灣銀行群賢分行</t>
@@ -789,38 +792,59 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="1">
-        <v>2497</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G1" s="1">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>32</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C2" s="2">
         <v>2497</v>
@@ -829,21 +853,42 @@
         <v>29</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G2" s="2">
         <v>100000</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" s="2">
+        <v>869</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N2" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>33</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3" s="2">
         <v>1998</v>
@@ -855,10 +900,31 @@
         <v>35</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G3" s="2">
         <v>50000</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" s="2">
+        <v>869</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N3" s="2">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -876,13 +942,13 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>29</v>
@@ -896,13 +962,13 @@
         <v>47</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>29</v>
@@ -916,13 +982,13 @@
         <v>48</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>29</v>
@@ -936,13 +1002,13 @@
         <v>49</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>29</v>
@@ -956,13 +1022,13 @@
         <v>50</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>29</v>
@@ -976,16 +1042,16 @@
         <v>51</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="E6" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F6" s="2">
         <v>155001</v>
@@ -996,16 +1062,16 @@
         <v>52</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F7" s="2">
         <v>3531</v>
@@ -1016,16 +1082,16 @@
         <v>53</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F8" s="2">
         <v>805752</v>
@@ -1036,16 +1102,16 @@
         <v>54</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F9" s="2">
         <v>840000</v>
@@ -1056,16 +1122,16 @@
         <v>55</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F10" s="2">
         <v>1238149</v>
@@ -1076,16 +1142,16 @@
         <v>56</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F11" s="2">
         <v>45421</v>
@@ -1106,16 +1172,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1123,16 +1189,16 @@
         <v>87</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1140,16 +1206,16 @@
         <v>88</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1157,16 +1223,16 @@
         <v>89</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1174,16 +1240,16 @@
         <v>90</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1191,16 +1257,16 @@
         <v>91</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1208,16 +1274,16 @@
         <v>92</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1225,16 +1291,16 @@
         <v>93</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1242,16 +1308,16 @@
         <v>94</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/盧秀燕_2011-11-21_財產申報表_tmp9eb41.xlsx
+++ b/legislator/property/output/normal/盧秀燕_2011-11-21_財產申報表_tmp9eb41.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="66">
   <si>
     <t>name</t>
   </si>
@@ -128,6 +128,9 @@
   </si>
   <si>
     <t>(購二手車）</t>
+  </si>
+  <si>
+    <t>car</t>
   </si>
   <si>
     <t>臺灣銀行群賢分行</t>
@@ -862,7 +865,7 @@
         <v>100000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>27</v>
@@ -906,7 +909,7 @@
         <v>50000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>27</v>
@@ -942,13 +945,13 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>29</v>
@@ -962,13 +965,13 @@
         <v>47</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>29</v>
@@ -982,13 +985,13 @@
         <v>48</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>29</v>
@@ -1002,13 +1005,13 @@
         <v>49</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>29</v>
@@ -1022,13 +1025,13 @@
         <v>50</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>29</v>
@@ -1042,16 +1045,16 @@
         <v>51</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="E6" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F6" s="2">
         <v>155001</v>
@@ -1062,16 +1065,16 @@
         <v>52</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F7" s="2">
         <v>3531</v>
@@ -1082,16 +1085,16 @@
         <v>53</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F8" s="2">
         <v>805752</v>
@@ -1102,16 +1105,16 @@
         <v>54</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F9" s="2">
         <v>840000</v>
@@ -1122,16 +1125,16 @@
         <v>55</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F10" s="2">
         <v>1238149</v>
@@ -1142,16 +1145,16 @@
         <v>56</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F11" s="2">
         <v>45421</v>
@@ -1172,16 +1175,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1189,16 +1192,16 @@
         <v>87</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1206,16 +1209,16 @@
         <v>88</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1223,16 +1226,16 @@
         <v>89</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1240,16 +1243,16 @@
         <v>90</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1257,16 +1260,16 @@
         <v>91</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1274,16 +1277,16 @@
         <v>92</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1291,16 +1294,16 @@
         <v>93</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1308,16 +1311,16 @@
         <v>94</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/盧秀燕_2011-11-21_財產申報表_tmp9eb41.xlsx
+++ b/legislator/property/output/normal/盧秀燕_2011-11-21_財產申報表_tmp9eb41.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="70">
   <si>
     <t>name</t>
   </si>
@@ -133,43 +133,55 @@
     <t>car</t>
   </si>
   <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>deposit_type</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
     <t>臺灣銀行群賢分行</t>
   </si>
   <si>
+    <t>合作金庫商業銀行中權分行</t>
+  </si>
+  <si>
+    <t>中國信託商業銀行城中分行</t>
+  </si>
+  <si>
+    <t>中華郵政股份有限公司中正路郵局</t>
+  </si>
+  <si>
+    <t>中華郵政股份有限公司台中永安郵局</t>
+  </si>
+  <si>
+    <t>國泰世華商業銀行中港分行</t>
+  </si>
+  <si>
     <t>活期儲蓄存款</t>
   </si>
   <si>
+    <t>定期存款</t>
+  </si>
+  <si>
+    <t>支票存款</t>
+  </si>
+  <si>
+    <t>活期存款</t>
+  </si>
+  <si>
     <t>新臺幣</t>
   </si>
   <si>
-    <t>合作金庫商業銀行中權分行</t>
-  </si>
-  <si>
-    <t>中國信託商業銀行城中分行</t>
-  </si>
-  <si>
-    <t>中華郵政股份有限公司中正路郵局</t>
-  </si>
-  <si>
-    <t>中華郵政股份有限公司台中永安郵局</t>
-  </si>
-  <si>
-    <t>國泰世華商業銀行中港分行</t>
-  </si>
-  <si>
-    <t>定期存款</t>
-  </si>
-  <si>
-    <t>支票存款</t>
-  </si>
-  <si>
-    <t>活期存款</t>
-  </si>
-  <si>
     <t>廖〇青</t>
   </si>
   <si>
     <t>廖〇桐</t>
+  </si>
+  <si>
+    <t>deposit</t>
   </si>
   <si>
     <t>南山人壽</t>
@@ -937,13 +949,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>38</v>
       </c>
@@ -954,24 +966,45 @@
         <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" s="1">
-        <v>4752062</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>47</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>29</v>
@@ -979,19 +1012,40 @@
       <c r="F2" s="2">
         <v>4752062</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="2">
+        <v>869</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M2" s="2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>48</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>29</v>
@@ -999,19 +1053,40 @@
       <c r="F3" s="2">
         <v>2000000</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="2">
+        <v>869</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M3" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>49</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>29</v>
@@ -1019,19 +1094,40 @@
       <c r="F4" s="2">
         <v>188252</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="2">
+        <v>869</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M4" s="2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>50</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>29</v>
@@ -1039,125 +1135,272 @@
       <c r="F5" s="2">
         <v>37158</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K5" s="2">
+        <v>869</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M5" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>51</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F6" s="2">
         <v>155001</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K6" s="2">
+        <v>869</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M6" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>52</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F7" s="2">
         <v>3531</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K7" s="2">
+        <v>869</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M7" s="2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>53</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F8" s="2">
         <v>805752</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K8" s="2">
+        <v>869</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M8" s="2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>54</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F9" s="2">
         <v>840000</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K9" s="2">
+        <v>869</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M9" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>55</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F10" s="2">
         <v>1238149</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K10" s="2">
+        <v>869</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M10" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>56</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F11" s="2">
         <v>45421</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K11" s="2">
+        <v>869</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M11" s="2">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1175,16 +1418,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1192,16 +1435,16 @@
         <v>87</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1209,16 +1452,16 @@
         <v>88</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1226,16 +1469,16 @@
         <v>89</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1243,16 +1486,16 @@
         <v>90</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1260,16 +1503,16 @@
         <v>91</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1277,16 +1520,16 @@
         <v>92</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1294,16 +1537,16 @@
         <v>93</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1311,16 +1554,16 @@
         <v>94</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/盧秀燕_2011-11-21_財產申報表_tmp9eb41.xlsx
+++ b/legislator/property/output/normal/盧秀燕_2011-11-21_財產申報表_tmp9eb41.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="64">
   <si>
     <t>name</t>
   </si>
@@ -184,21 +184,21 @@
     <t>deposit</t>
   </si>
   <si>
+    <t>company</t>
+  </si>
+  <si>
     <t>南山人壽</t>
   </si>
   <si>
+    <t>中華郵政</t>
+  </si>
+  <si>
+    <t>中國人壽</t>
+  </si>
+  <si>
     <t>子女教育保險</t>
   </si>
   <si>
-    <t>保險期間：951811718(22年)年繳保費應繳$71400</t>
-  </si>
-  <si>
-    <t>中華郵政</t>
-  </si>
-  <si>
-    <t>中國人壽</t>
-  </si>
-  <si>
     <t>十年快樂兒同還本終身壽險</t>
   </si>
   <si>
@@ -208,25 +208,7 @@
     <t>得意人生終身保險</t>
   </si>
   <si>
-    <t>保險期間：9261025(10年）年缴保費應繳$103431</t>
-  </si>
-  <si>
-    <t>保險期間：9261025(10年）年繳保費應繳$102559</t>
-  </si>
-  <si>
-    <t>保險期間：99824105824(6年)年繳保費應繳$159588</t>
-  </si>
-  <si>
-    <t>保險期間：9112301011230(10年)年繳保費應繳$70309</t>
-  </si>
-  <si>
-    <t>保險期間：9112301011230(10年）年繳保費應繳$73185</t>
-  </si>
-  <si>
-    <t>保險期間：9112301011230(10年)年繳保費應繳$73234</t>
-  </si>
-  <si>
-    <t>保險期間：9112301011230(10年)年缴保費應繳$70357</t>
+    <t>insurance</t>
   </si>
 </sst>
 </file>
@@ -1410,49 +1392,85 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>55</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>87</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>63</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="2">
+        <v>869</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>88</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>60</v>
@@ -1463,13 +1481,31 @@
       <c r="E3" s="2" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="2">
+        <v>869</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" s="2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>89</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>60</v>
@@ -1478,15 +1514,33 @@
         <v>29</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>63</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="2">
+        <v>869</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" s="2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>90</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>61</v>
@@ -1495,15 +1549,33 @@
         <v>29</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>63</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="2">
+        <v>869</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>91</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>62</v>
@@ -1512,15 +1584,33 @@
         <v>29</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>63</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" s="2">
+        <v>869</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>92</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>62</v>
@@ -1529,15 +1619,33 @@
         <v>29</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>63</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" s="2">
+        <v>869</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K7" s="2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1">
         <v>93</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>62</v>
@@ -1546,15 +1654,33 @@
         <v>29</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>63</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" s="2">
+        <v>869</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K8" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1">
         <v>94</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>62</v>
@@ -1563,7 +1689,25 @@
         <v>29</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" s="2">
+        <v>869</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K9" s="2">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
